--- a/033_BirthdayDictionaries/assets/NameAndBirthday.xlsx
+++ b/033_BirthdayDictionaries/assets/NameAndBirthday.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -417,7 +417,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>30628</v>
+        <v>30994</v>
       </c>
     </row>
     <row r="3" spans="1:2">
